--- a/ForecastData/PriceData.5days.xlsx
+++ b/ForecastData/PriceData.5days.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Load forecasting paper\forecast demand results\ForecastData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Load forecasting paper\forecast demand results\ForecastData\for github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF75024-2718-4D0D-AC90-38A5FAC62667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D859C5-80D2-43FA-A763-65215C874748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F79419E-B846-4636-95F3-CC0AF5532C2C}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve">summer price </t>
+    <t xml:space="preserve">Sprice </t>
   </si>
   <si>
-    <t>winter price</t>
+    <t>Wprice</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
